--- a/OneDay_Server_Food/DBMS/OneDay_다이어트를 도와줘/가공식품 영양정보 테이블명세(2021-05-10).xlsx
+++ b/OneDay_Server_Food/DBMS/OneDay_다이어트를 도와줘/가공식품 영양정보 테이블명세(2021-05-10).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -369,10 +369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>섭취정보 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_myfoods</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -381,10 +377,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>식품코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>섭취량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,11 +397,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>it_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품섭취정보 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 섭취하는 식품의 정보를 추가하여 저장할 Table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mf_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_foods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_foods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1152,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1966,7 +1998,9 @@
       <c r="J9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1995,7 +2029,9 @@
       <c r="J10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4292,7 +4328,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4946,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>1</v>
@@ -4971,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4991,7 +5027,9 @@
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -5042,44 +5080,46 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>65</v>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5087,40 +5127,56 @@
       <c r="K7" s="8"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
